--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Suggest.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Suggest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDA29DE-5C53-4228-824E-17C683FDB19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0C16AF-C8D4-410B-92E5-F4C8E16B75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>company_code</t>
   </si>
@@ -60,16 +60,25 @@
     <t>empsuggest_note</t>
   </si>
   <si>
-    <t>empsuggest_amount</t>
-  </si>
-  <si>
-    <t>จำนวนเงิน</t>
+    <t>empsuggest_suggest</t>
+  </si>
+  <si>
+    <t>รหัสนโยบาย</t>
+  </si>
+  <si>
+    <t>วันที่</t>
+  </si>
+  <si>
+    <t>REF01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +146,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,25 +460,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,13 +489,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,8 +508,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
-        <v>45077</v>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
@@ -509,23 +524,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,11 +553,14 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -556,10 +574,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,9 +590,8 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>3000</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -586,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
